--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_229.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_229.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,688 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:27', '0:00:49.860000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:03:58.720000', '0:04:14.260000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526), (13.648526, 21.12535)]</t>
+          <t>[('0:00:08.340000', '0:00:16.500000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:21.440000', '0:00:24.720000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[('0:00:06.980000', '0:00:20.820000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3541666666666666</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_176</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1001011122345804</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[('0:00:03.340000', '0:00:06.820000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:12.780000', '0:00:16.740000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1536231884057971</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['F#:min', 'B', 'E', 'E']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['G:min', 'C', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:00:13.334625', '0:00:18.779705')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:54.681315', '0:01:02.158140')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07968631419175309</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D', 'D/b7', 'D/6', 'D/5', 'G']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1416666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'E/2', 'E/3', 'E/4', 'A']]</t>
+          <t>[['B', 'B/3', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(35.486462, 41.361111)]</t>
+          <t>[['A', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(63.419996, 69.714376)]</t>
+          <t>[('0:02:33.617981', '0:02:41.988775')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>[('0:00:34.290634', '0:00:42.011269')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(66.1, 84.78)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(120.22, 121.92)]</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:07.400000', '0:00:18.240000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_187</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(10.24, 21.02)]</t>
+          <t>[('0:00:16.380000', '0:01:35.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(29.5, 31.64)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:19.500000', '0:00:49.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:02.060000', '0:00:23.220000'), ('0:00:57.580000', '0:01:19.360000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.38, 12.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(24.631133, 29.751133)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>[('0:00:00.720000', '0:00:20.920000'), ('0:00:49.740000', '0:01:09.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
